--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_61.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_51</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02326388888888889</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj7', 'Ab:maj7'], ['D:min7', 'G:7', 'C:maj7']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_21</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09521739130434782</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Db:7', 'Gb:maj7', 'Gb:maj7'], ['C:min7', 'F:7', 'Bb:maj7']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb'], ['Eb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.81, 24.91), (27.63, 31.04)]</t>
+          <t>[['G:7', 'C', 'C/b7'], ['C', 'C/7', 'C/b7'], ['C', 'C/b7', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(316.49, 317.72), (51.17, 54.73)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:24.290000', '0:00:28.790000'), ('0:00:08.700000', '0:00:12.060000'), ('0:01:43.350000', '0:01:46.640000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:34.041000', '0:00:38.588000'), ('0:00:52.386000', '0:00:56.294000'), ('0:00:35.532000', '0:00:40.124000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2196969696969697</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:13.740000', '0:00:16.300000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2762762762762763</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F/2', 'C', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06346153846153846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb', 'Bb']]</t>
+          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(57.758, 65.204)]</t>
+          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(64.139886, 72.16238)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:41.020000', '0:00:43.660000'), ('0:00:15.060000', '0:00:20.560000'), ('0:00:26.960000', '0:00:30.840000'), ('0:00:46.120000', '0:00:48.300000'), ('0:00:10.160000', '0:00:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:39.300000', '0:00:45.380000'), ('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000'), ('0:00:37.540000', '0:00:42.720000'), ('0:00:27.360000', '0:00:34.920000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2196969696969697</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(24.86, 45.46)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:16.300000', '0:00:19.520000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.400000', '0:00:12.020000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.354679802955665</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'A', 'E']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(15.935351, 28.899196)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.440395, 8.504874)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1678571428571429</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E'], ['E/5', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.683832, 65.956303), (30.035034, 41.761111)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34), (0.78, 19.18)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(132.3, 136.56)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1744851258581236</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D'], ['E', 'A', 'D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D'], ['E', 'A', 'D', 'E', 'A']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.420489, 6.194008), (2.385936, 9.618952)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(57.230509, 74.308785), (54.386064, 71.429511)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(58.04, 64.86)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(23.629455, 29.120975)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09935897435897437</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A'], ['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A'], ['A/3', 'E/5', 'A/3']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.302038, 5.439841), (57.777619, 61.864331)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179), (14.168, 18.573)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.811411149825784</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['A', 'D', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/4', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(147.58, 182.3)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(120.1, 147.72)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:44.130000', '0:03:13.674000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.965212', '0:01:23.364215')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.48, 9.64)]</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_81</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_42</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.94, 14.56), (19.26, 22.26), (15.12, 16.42)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(11.76, 15.64), (20.54, 23.16), (16.24, 17.66)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_28</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(27.510408, 38.772086)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.476213, 15.8656)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
